--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E8" s="3">
         <v>82100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>90800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>94300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>101800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>96500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>135700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E9" s="3">
         <v>55300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>65100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>68100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>63800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>99800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E10" s="3">
         <v>26800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>33700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>32700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>35900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>300</v>
       </c>
       <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>7500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>16300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3">
         <v>7700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E17" s="3">
         <v>79900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>80800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>82700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>137400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>84800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>48100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>27600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>60800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-173900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>103600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>59400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>37700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>67800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-165600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1500</v>
       </c>
       <c r="F22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>47600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>57200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-181700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-43800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>71700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>42500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-137900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>71700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>42500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-137900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E32" s="3">
         <v>15700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-84800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-48100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-27600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-60800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>173900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>71700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>42500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-137900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>71700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>42500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-137900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E41" s="3">
         <v>27800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E42" s="3">
         <v>99000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>96100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>99400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>94900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>85100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>84800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>81300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E43" s="3">
         <v>23900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>19200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E45" s="3">
         <v>6800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E46" s="3">
         <v>160600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>152300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>142900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>149500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E47" s="3">
         <v>273100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>311900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>356800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>419600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>383700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>369100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>318700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>391900</v>
+      </c>
+      <c r="E48" s="3">
         <v>397400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>381000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>358400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>359000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>367300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>382200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>394800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E49" s="3">
         <v>77200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>75700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>78800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E52" s="3">
         <v>11100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14000</v>
       </c>
       <c r="H52" s="3">
         <v>14000</v>
       </c>
       <c r="I52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J52" s="3">
         <v>12700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>894800</v>
+      </c>
+      <c r="E54" s="3">
         <v>919400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>933900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>959900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1018000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>983600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>988800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>947600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E57" s="3">
         <v>42300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>26500</v>
       </c>
       <c r="H57" s="3">
         <v>26500</v>
       </c>
       <c r="I57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E58" s="3">
         <v>6500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>159000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>159600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>160100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>164600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100600</v>
+      </c>
+      <c r="E59" s="3">
         <v>94000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>98200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>102900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>111500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>109300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143600</v>
+      </c>
+      <c r="E60" s="3">
         <v>142800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>141900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>288400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>288200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>301600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>310200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E61" s="3">
         <v>69900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>71500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>74200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>75200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>76100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>77900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>80600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E62" s="3">
         <v>108000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>107000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>111300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>81100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>86700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>77700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>307100</v>
+      </c>
+      <c r="E66" s="3">
         <v>320800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>320400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>320700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>453100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>445400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>466300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>468400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>608500</v>
+      </c>
+      <c r="E72" s="3">
         <v>613400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>624000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>644800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>573100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>536700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>515600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>473200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>587700</v>
+      </c>
+      <c r="E76" s="3">
         <v>598600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>613500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>639100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>564800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>538200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>522600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>479200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>71700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>42500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-137900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>24000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>165300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>50500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-7400</v>
       </c>
       <c r="G91" s="3">
         <v>-7400</v>
       </c>
       <c r="H91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-22900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-65600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,46 +3338,52 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-152600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -3154,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-34500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E8" s="3">
         <v>98900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>82100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>90800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>99600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>101800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>96500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>135700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E9" s="3">
         <v>53600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>55300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>65100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>68100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>99800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E10" s="3">
         <v>45300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>33700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>32700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>35900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>300</v>
       </c>
       <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>7500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E17" s="3">
         <v>90700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>79900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>82700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>98900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>137400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>8200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1076,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-16400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>84800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>48100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>27600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>60800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-173900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>103600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>59400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>67800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-165600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,95 +1156,104 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
       </c>
       <c r="G22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>93700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>57200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-181700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-43800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>71700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>42500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-137900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>71700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>42500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-137900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>16400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-84800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-48100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-27600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-60800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>173900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>71700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>42500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-137900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>71700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>42500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-137900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1706,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E41" s="3">
         <v>42300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E42" s="3">
         <v>83100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>99000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>96100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>94900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>85100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>84800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>81300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E43" s="3">
         <v>28500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>19200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>167800</v>
+      </c>
+      <c r="E46" s="3">
         <v>164800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>160600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>152300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>153700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>147800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>142900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>149500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>242400</v>
+      </c>
+      <c r="E47" s="3">
         <v>250400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>273100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>311900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>356800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>419600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>383700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>369100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>318700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>388100</v>
+      </c>
+      <c r="E48" s="3">
         <v>391900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>397400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>381000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>358400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>359000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>367300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>382200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>394800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E49" s="3">
         <v>77000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>77700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>75700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>78800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,8 +2089,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,31 +2101,34 @@
         <v>10700</v>
       </c>
       <c r="E52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F52" s="3">
         <v>11100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>14000</v>
       </c>
       <c r="I52" s="3">
         <v>14000</v>
       </c>
       <c r="J52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>885900</v>
+      </c>
+      <c r="E54" s="3">
         <v>894800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>919400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>933900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>959900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1018000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>983600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>988800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>947600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E57" s="3">
         <v>36700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>42300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>26500</v>
       </c>
       <c r="I57" s="3">
         <v>26500</v>
       </c>
       <c r="J57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K57" s="3">
         <v>30000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E58" s="3">
         <v>6400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>159000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>159600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>160100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>164600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101800</v>
+      </c>
+      <c r="E59" s="3">
         <v>100600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>94000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>98200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>102900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>102000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>111500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>109300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E60" s="3">
         <v>143600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>141900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>288400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>288200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>301600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>310200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E61" s="3">
         <v>68500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>69900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>71500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>74200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>76100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>77900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>80600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E62" s="3">
         <v>95000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>107000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>111300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>81100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>86700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>77700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>298600</v>
+      </c>
+      <c r="E66" s="3">
         <v>307100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>320800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>320400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>453100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>445400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>466300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>468400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>608200</v>
+      </c>
+      <c r="E72" s="3">
         <v>608500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>613400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>624000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>644800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>573100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>536700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>515600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>473200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>587300</v>
+      </c>
+      <c r="E76" s="3">
         <v>587700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>598600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>613500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>639100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>564800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>538200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>522600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>479200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>71700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>42500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-137900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>17500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>165300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>50500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7400</v>
       </c>
       <c r="H91" s="3">
         <v>-7400</v>
       </c>
       <c r="I91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-22900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-65600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3350,31 +3596,34 @@
         <v>-1600</v>
       </c>
       <c r="E100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-152600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3382,11 +3631,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>13200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E8" s="3">
         <v>85400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>90800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>99600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>101800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>96500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>135700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E9" s="3">
         <v>53900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>55300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>65100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>68100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>99800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E10" s="3">
         <v>31500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>45300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>33700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>32700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>35900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,69 +939,75 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>300</v>
       </c>
       <c r="I14" s="3">
+        <v>300</v>
+      </c>
+      <c r="J14" s="3">
         <v>7500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>16300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E15" s="3">
         <v>7900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>78700</v>
+      </c>
+      <c r="E17" s="3">
         <v>78000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>90700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>79900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>82700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>98900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>137400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E18" s="3">
         <v>7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>8200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-108800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-15700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>84800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>48100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>27600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>60800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-173900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="E21" s="3">
         <v>8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>103600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>59400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>67800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-165600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1159,101 +1199,110 @@
         <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1500</v>
       </c>
       <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>57200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-181700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-43800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>71700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-137900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>71700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>21100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-137900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,8 +1479,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>108800</v>
+      </c>
+      <c r="E32" s="3">
         <v>6500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>15700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-84800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-48100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-27600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-60800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>173900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>71700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>42500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-137900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>71700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>42500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-137900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,323 +1793,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E41" s="3">
         <v>45800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E42" s="3">
         <v>87200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>83100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>99000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>96100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>94900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>85100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>84800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>81300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E43" s="3">
         <v>22400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>19200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
         <v>8100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>150400</v>
+      </c>
+      <c r="E46" s="3">
         <v>167800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>164800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>160600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>152300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>153700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>147800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>142900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>151800</v>
+      </c>
+      <c r="E47" s="3">
         <v>242400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>250400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>273100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>311900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>356800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>419600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>383700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>369100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>318700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>384300</v>
+      </c>
+      <c r="E48" s="3">
         <v>388100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>391900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>397400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>381000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>358400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>359000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>367300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>382200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>394800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E49" s="3">
         <v>76900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>77000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>77300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>77700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>75700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>78800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>10500</v>
       </c>
       <c r="E52" s="3">
         <v>10700</v>
       </c>
       <c r="F52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G52" s="3">
         <v>11100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>11400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>14000</v>
       </c>
       <c r="J52" s="3">
         <v>14000</v>
       </c>
       <c r="K52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>773400</v>
+      </c>
+      <c r="E54" s="3">
         <v>885900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>894800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>919400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>933900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>959900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1018000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>983600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>988800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>947600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,43 +2357,47 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E57" s="3">
         <v>34900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>26500</v>
       </c>
       <c r="J57" s="3">
         <v>26500</v>
       </c>
       <c r="K57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="L57" s="3">
         <v>30000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2271,174 +2405,189 @@
         <v>6300</v>
       </c>
       <c r="E58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F58" s="3">
         <v>6400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>159000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>159600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>160100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>164600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>102600</v>
+      </c>
+      <c r="E59" s="3">
         <v>101800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>94000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>98200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>102900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>102000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>111500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>109300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>138300</v>
+      </c>
+      <c r="E60" s="3">
         <v>143100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>141900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>288400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>288200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>301600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>310200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E61" s="3">
         <v>67300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>68500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>69900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>71500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>74200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>75200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>76100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>77900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>63600</v>
+      </c>
+      <c r="E62" s="3">
         <v>88100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>107000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>111300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>89500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>81100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>77700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>267600</v>
+      </c>
+      <c r="E66" s="3">
         <v>298600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>307100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>320800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>453100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>445400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>466300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>468400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>534500</v>
+      </c>
+      <c r="E72" s="3">
         <v>608200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>608500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>613400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>624000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>644800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>573100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>536700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>515600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>473200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>505700</v>
+      </c>
+      <c r="E76" s="3">
         <v>587300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>587700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>598600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>613500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>639100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>564800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>538200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>522600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>479200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>71700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>42500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-137900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E89" s="3">
         <v>21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>50500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-7400</v>
       </c>
       <c r="I91" s="3">
         <v>-7400</v>
       </c>
       <c r="J91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-65600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3599,46 +3845,49 @@
         <v>-1600</v>
       </c>
       <c r="F100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-152600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-8900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E8" s="3">
         <v>92400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>85400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>82100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>90800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>99600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>101800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>96500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>135700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E9" s="3">
         <v>54300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>53900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>55300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>65100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>68100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>63800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>99800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E10" s="3">
         <v>38100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>45300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>26800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>36000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>32700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>35900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,72 +962,78 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>300</v>
       </c>
       <c r="J14" s="3">
+        <v>300</v>
+      </c>
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>16300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E15" s="3">
         <v>7800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77800</v>
+      </c>
+      <c r="E17" s="3">
         <v>78700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>90700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>80800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>82700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>137400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E18" s="3">
         <v>13700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>8200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-108800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-16400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-15700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>84800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>48100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>60800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-173900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-87300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>103600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>59400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>37700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>67800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-165600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1202,107 +1242,116 @@
         <v>1400</v>
       </c>
       <c r="G22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>1500</v>
       </c>
       <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-96500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>93700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>57200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-181700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-22700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-43800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-73800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>71700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>21100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-137900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>71700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>21100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>42500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-137900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,8 +1543,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E32" s="3">
         <v>108800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>16400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>15700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-84800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-48100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-60800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>173900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>71700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>42500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-137900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>71700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>42500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-137900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1880,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E41" s="3">
         <v>40500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>45800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>24500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>33200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E42" s="3">
         <v>71800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>83100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>99000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>96100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>99400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>94900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>85100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>84800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>81300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E43" s="3">
         <v>26900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>22400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>19200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E46" s="3">
         <v>150400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>167800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>164800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>160600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>152300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>153700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>147800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>142900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>149500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>142800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E47" s="3">
         <v>151800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>242400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>250400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>273100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>311900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>356800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>419600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>383700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>369100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>318700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>453000</v>
+      </c>
+      <c r="E48" s="3">
         <v>384300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>388100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>391900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>397400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>381000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>358400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>359000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>367300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>382200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>394800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E49" s="3">
         <v>76400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>77000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>77400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>77300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>77700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>75700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>78800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E52" s="3">
         <v>10500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>10700</v>
       </c>
       <c r="F52" s="3">
         <v>10700</v>
       </c>
       <c r="G52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="H52" s="3">
         <v>11100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>11400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>14000</v>
       </c>
       <c r="K52" s="3">
         <v>14000</v>
       </c>
       <c r="L52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>862100</v>
+      </c>
+      <c r="E54" s="3">
         <v>773400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>885900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>894800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>919400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>933900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>959900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1018000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>983600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>988800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>947600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,46 +2488,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E57" s="3">
         <v>29400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>34900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>42300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>40700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>26500</v>
       </c>
       <c r="K57" s="3">
         <v>26500</v>
       </c>
       <c r="L57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="M57" s="3">
         <v>30000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2408,186 +2542,201 @@
         <v>6300</v>
       </c>
       <c r="F58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G58" s="3">
         <v>6400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>159000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>159600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>160100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>164600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E59" s="3">
         <v>102600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>98200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>102900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E60" s="3">
         <v>138300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>142800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>141900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>135200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>288400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>288200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>301600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>310200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E61" s="3">
         <v>65800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>67300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>68500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>71500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>74200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>75200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>76100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>77900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E62" s="3">
         <v>63600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>95000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>108000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>107000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>111300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>89500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>81100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>77700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>325700</v>
+      </c>
+      <c r="E66" s="3">
         <v>267600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>298600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>307100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>320800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>320700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>453100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>445400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>466300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>468400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>566500</v>
+      </c>
+      <c r="E72" s="3">
         <v>534500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>608200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>608500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>613400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>624000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>644800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>573100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>536700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>515600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>473200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>536500</v>
+      </c>
+      <c r="E76" s="3">
         <v>505700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>587300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>587700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>598600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>613500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>639100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>564800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>538200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>522600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>479200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>71700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>42500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-137900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E89" s="3">
         <v>13100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>50500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-7400</v>
       </c>
       <c r="J91" s="3">
         <v>-7400</v>
       </c>
       <c r="K91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-37800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-65600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,13 +4076,16 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1600</v>
+        <v>28500</v>
       </c>
       <c r="E100" s="3">
         <v>-1600</v>
@@ -3848,31 +4094,34 @@
         <v>-1600</v>
       </c>
       <c r="G100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-152600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3880,17 +4129,17 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3909,42 +4158,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>45100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E8" s="3">
         <v>92000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>85400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>98900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>82100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>90800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>101800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>96500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>135700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E9" s="3">
         <v>53800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>53900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>53600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>55300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>65100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>68100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>63800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>99800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E10" s="3">
         <v>38200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>38100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>45300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>26800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>32700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>35900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,13 +966,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -965,75 +984,81 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>4100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>300</v>
       </c>
       <c r="K14" s="3">
+        <v>300</v>
+      </c>
+      <c r="L14" s="3">
         <v>7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E15" s="3">
         <v>8500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>7800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>7900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>7800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E17" s="3">
         <v>77800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>78700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>78000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>90700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>82700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>137400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E18" s="3">
         <v>14200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,95 +1177,102 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>28800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-108800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-16400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>84800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>60800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-173900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>51500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-87300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>103600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>59400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>37700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>67800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-165600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
@@ -1245,113 +1284,122 @@
         <v>1400</v>
       </c>
       <c r="H22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="3">
         <v>1500</v>
       </c>
       <c r="J22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="3">
         <v>41600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-96500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-14900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>93700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>57200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-181700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-22700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-43800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E26" s="3">
         <v>32000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-73800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>71700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>21100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-137900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E27" s="3">
         <v>32000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>71700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>21100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>42500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-137900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1546,8 +1606,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-28800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>108800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>16400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-84800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-60800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>173900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E33" s="3">
         <v>32000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>71700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>42500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-137900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E35" s="3">
         <v>32000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>71700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>42500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-137900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E41" s="3">
         <v>64800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>40500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>28400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>24500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>33200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E42" s="3">
         <v>70000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>71800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>87200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>83100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>99000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>96100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>99400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>94900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>85100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>84800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>81300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E43" s="3">
         <v>25800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>26900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>22400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>23900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E46" s="3">
         <v>177600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>150400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>167800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>164800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>160600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>152300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>153700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>147800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>142900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>149500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>142800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E47" s="3">
         <v>144900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>151800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>242400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>250400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>273100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>311900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>356800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>419600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>383700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>369100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>318700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>435500</v>
+      </c>
+      <c r="E48" s="3">
         <v>453000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>384300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>388100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>391900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>397400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>381000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>358400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>359000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>367300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>382200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>394800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E49" s="3">
         <v>75900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>76400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>76900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>77000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>77200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>77400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>77300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>77700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>75700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>75300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>78800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>10700</v>
       </c>
       <c r="G52" s="3">
         <v>10700</v>
       </c>
       <c r="H52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I52" s="3">
         <v>11100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>11400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>14000</v>
       </c>
       <c r="L52" s="3">
         <v>14000</v>
       </c>
       <c r="M52" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>828500</v>
+      </c>
+      <c r="E54" s="3">
         <v>862100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>773400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>885900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>894800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>919400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>933900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>959900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1018000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>983600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>988800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>947600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,54 +2618,58 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E57" s="3">
         <v>34300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>34900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>42300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>40700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>26500</v>
       </c>
       <c r="L57" s="3">
         <v>26500</v>
       </c>
       <c r="M57" s="3">
+        <v>26500</v>
+      </c>
+      <c r="N57" s="3">
         <v>30000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6300</v>
+        <v>16400</v>
       </c>
       <c r="E58" s="3">
         <v>6300</v>
@@ -2545,198 +2678,213 @@
         <v>6300</v>
       </c>
       <c r="G58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H58" s="3">
         <v>6400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>159000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>159600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>160100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>164600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E59" s="3">
         <v>105100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>102600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>98200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>102900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>102000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>134900</v>
+      </c>
+      <c r="E60" s="3">
         <v>145700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>138300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>142800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>141900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>135200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>288400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>288200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>301600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>310200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E61" s="3">
         <v>94400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>65800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>67300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>68500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>69900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>71500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>74200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>76100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>77900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>80600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E62" s="3">
         <v>76600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>63600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>107000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>111300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>81100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>77700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E66" s="3">
         <v>325700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>267600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>298600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>307100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>320800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>320400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>320700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>453100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>445400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>466300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>468400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>576500</v>
+      </c>
+      <c r="E72" s="3">
         <v>566500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>534500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>608200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>608500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>613400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>624000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>644800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>573100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>536700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>515600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>473200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E76" s="3">
         <v>536500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>505700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>587300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>587700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>598600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>613500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>639100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>564800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>538200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>522600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>479200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E81" s="3">
         <v>32000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>71700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>42500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-137900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E89" s="3">
         <v>65600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>24000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>50500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-7400</v>
       </c>
       <c r="K91" s="3">
         <v>-7400</v>
       </c>
       <c r="L91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-37800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-65600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,16 +4321,19 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E100" s="3">
         <v>28500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-1600</v>
       </c>
       <c r="F100" s="3">
         <v>-1600</v>
@@ -4097,52 +4342,55 @@
         <v>-1600</v>
       </c>
       <c r="H100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-152600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4161,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E102" s="3">
         <v>24300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>45100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BH.A_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>BH.A</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,232 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F8" s="3">
         <v>98500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>92000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>92400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>85400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>98900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>82100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>90800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>94300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>99600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>101800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>96500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>135700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>158400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F9" s="3">
         <v>53400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>53800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>54300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>53900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>53600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>55300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>54800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>59700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>65100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>68100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>63800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>99800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>115000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F10" s="3">
         <v>45100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>38200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>38100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>31500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>45300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>26800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>36000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>34600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>34500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>33700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>32700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>35900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1003,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>800</v>
+      </c>
+      <c r="F14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>7500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>6500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>16300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F15" s="3">
         <v>12300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>7900</v>
       </c>
       <c r="H15" s="3">
         <v>7800</v>
       </c>
       <c r="I15" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>7400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>7200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>7300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>6900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>82200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F17" s="3">
         <v>91600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>77800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>78000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>90700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>79900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>80800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>82700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>96200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>98900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>96400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>137400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F18" s="3">
         <v>6900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>14200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>13700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,107 +1244,121 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>76200</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>28800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-108800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-16400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-15700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-35400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>84800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>48100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>27600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>60800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-173900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>96700</v>
+      </c>
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>51500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-87300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-18000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>103600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>59400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>37700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>67800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-165600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>32700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F22" s="3">
         <v>1700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
@@ -1287,119 +1367,137 @@
         <v>1400</v>
       </c>
       <c r="I22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>6100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F23" s="3">
         <v>12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>41600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-96500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-14900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-26900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>93700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>47600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>26700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>57200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-181700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F24" s="3">
         <v>2600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-22700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>14800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-43800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>65500</v>
+      </c>
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>32000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-73800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>71700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>36300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>21100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>42500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-137900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-73800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>71700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>36300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>21100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>42500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-137900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1609,17 +1731,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-28800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>108800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>16400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>15700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>35400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-84800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-48100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-27600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-60800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>173900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-8400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>32000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-73800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>71700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>36300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>42500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-137900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>32000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-73800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>71700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>36300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>42500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-137900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2139,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39400</v>
+      </c>
+      <c r="F41" s="3">
         <v>37500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>64800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>40500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>45800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>42300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>28200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>28400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>33200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>36400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>67800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E42" s="3">
+        <v>79700</v>
+      </c>
+      <c r="F42" s="3">
         <v>69500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>70000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>71800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>87200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>83100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>99000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>96100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>99400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>94900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>85100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>84800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>81300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>44900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F43" s="3">
         <v>29400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>25800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>26900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>22400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>28500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>23900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>16400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>19200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>16200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>18100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>17400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>21600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F45" s="3">
         <v>10500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>7100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6700</v>
       </c>
       <c r="K45" s="3">
         <v>6800</v>
       </c>
       <c r="L45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="N45" s="3">
         <v>6500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>5600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>7200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>163400</v>
+      </c>
+      <c r="F46" s="3">
         <v>150700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>177600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>150400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>167800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>164800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>160600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>152300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>153700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>147800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>142900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>149500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>142800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>145400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>230800</v>
+      </c>
+      <c r="F47" s="3">
         <v>155800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>144900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>151800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>242400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>250400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>273100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>311900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>356800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>419600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>383700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>369100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>318700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>505500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>426400</v>
+      </c>
+      <c r="F48" s="3">
         <v>435500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>453000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>384300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>388100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>391900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>397400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>381000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>358400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>359000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>367300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>382200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>394800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>410300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>76700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>76700</v>
+      </c>
+      <c r="F49" s="3">
         <v>76600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>75900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>76400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>76900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>77000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>77200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>77400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>77300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>77700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>75700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>75300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>78800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>67400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F52" s="3">
         <v>10000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>10700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>11100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>13700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>14000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>14000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>12500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>907200</v>
+      </c>
+      <c r="F54" s="3">
         <v>828500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>862100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>773400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>885900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>894800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>919400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>933900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>959900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1018000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>983600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>988800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>947600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1139300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F57" s="3">
         <v>28400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>34300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>29400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>34900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>36700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>42300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>40700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>31300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>26500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>26500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>30000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>36300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F58" s="3">
         <v>16400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>6300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6300</v>
       </c>
       <c r="G58" s="3">
         <v>6300</v>
       </c>
       <c r="H58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J58" s="3">
         <v>6400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>6500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>159000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>159600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>160100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>164600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F59" s="3">
         <v>90100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>105100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>102600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>101800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>94000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>94700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>98200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>102900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>102000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>111500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>109300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>130800</v>
+      </c>
+      <c r="F60" s="3">
         <v>134900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>145700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>138300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>143100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>143600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>142800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>141900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>135200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>288400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>288200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>301600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>310200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>139800</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F61" s="3">
         <v>63000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>94400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>65800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>67300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>68500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>69900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>71500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>74200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>75200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>76100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>77900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>80600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>263200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>90700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>93000</v>
+      </c>
+      <c r="F62" s="3">
         <v>75000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>76600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>63600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>88100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>95000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>108000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>107000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>111300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>89500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>81100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>86700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>77700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>120000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>273600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>295300</v>
+      </c>
+      <c r="F66" s="3">
         <v>281500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>325700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>267600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>298600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>307100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>320800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>320400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>320700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>453100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>445400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>466300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>468400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>523000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>643300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>641400</v>
+      </c>
+      <c r="F72" s="3">
         <v>576500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>566500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>534500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>608200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>608500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>613400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>624000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>644800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>573100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>536700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>515600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>473200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>611000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>616400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>611900</v>
+      </c>
+      <c r="F76" s="3">
         <v>547000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>536500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>505700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>587300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>587700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>598600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>613500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>639100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>564800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>538200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>522600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>479200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>616300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>32000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-73800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>71700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>36300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>42500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-137900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>13600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7900</v>
       </c>
       <c r="H83" s="3">
         <v>7800</v>
       </c>
       <c r="I83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>7900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>6900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>11400</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F89" s="3">
         <v>28100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>65600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>17500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>24000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>21900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>165300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>48200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>50500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>53800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-18100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-19600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-9300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-34100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-69600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-16700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-16100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-22900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-8800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-17400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-8700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-37800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-65600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,79 +4810,91 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-21500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>28500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-1600</v>
       </c>
       <c r="H100" s="3">
         <v>-1600</v>
       </c>
       <c r="I100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-152600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-19400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4412,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-27400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>24300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-34500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>45100</v>
       </c>
     </row>
